--- a/doc/计算器.xlsx
+++ b/doc/计算器.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Phibochilai-X\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Phibochilai-X\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7403"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="蜗轮蜗杆" sheetId="1" r:id="rId1"/>
+    <sheet name="轴" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,13 +188,29 @@
   </si>
   <si>
     <t>L&gt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tau]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,16 +570,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -598,7 +615,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -620,7 +637,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -642,7 +659,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -658,7 +675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -674,7 +691,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -690,7 +707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -702,7 +719,7 @@
         <v>3.5763343749973515</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -714,7 +731,7 @@
         <v>3.5763343749973515</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>22</v>
       </c>
@@ -730,7 +747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>24</v>
       </c>
@@ -742,7 +759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -754,7 +771,7 @@
         <v>3.9269908169872414</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -763,7 +780,7 @@
         <v>3.9269908169872414</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>39</v>
       </c>
@@ -775,7 +792,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -787,7 +804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>30</v>
       </c>
@@ -802,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>33</v>
       </c>
@@ -814,7 +831,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>35</v>
       </c>
@@ -826,7 +843,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -843,4 +860,1340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <f>POWER((9550*1000)/(0.2*B1),1/3)</f>
+        <v>116.757299188389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>140</v>
+      </c>
+      <c r="I4">
+        <v>160</v>
+      </c>
+      <c r="J4">
+        <v>180</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4">
+        <v>350</v>
+      </c>
+      <c r="O4">
+        <v>400</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <f>$B$2*POWER(B$4/$A5/1000,1/3)</f>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:P5" si="0">$B$2*POWER(C$4/$A5/1000,1/3)</f>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.5708937246289567</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.0309195137179357</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>5.4193937615561305</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5.7589652204924029</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>6.0626158738377471</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>6.3385613956601086</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>6.5923695102669457</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>6.8280082778535212</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>7.3552489488162465</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>7.8161183239309766</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>8.2282356652965518</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>8.6027513581240953</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>9.2670329778307252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P23" si="1">$B$2*POWER(B$4/$A6/1000,1/3)</f>
+        <v>2.76862170489016</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.4882447651869448</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.3949130068446296</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4.7342765208092015</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>5.0309195137179357</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>5.2961827925848421</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>5.5372434097803209</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>5.7589652204924029</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>5.9648146445905752</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>6.4254017949580717</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>6.8280082778535212</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>7.1880259364495496</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>7.5151955294408737</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>8.0954989754999769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2.5154597568589678</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3.627920753455423</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.3013756790620485</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.5708937246289567</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>4.8119014079045712</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5.0309195137179357</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5.2323671477804163</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>5.4193937615561305</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>5.8378649594194512</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6.2036572248579747</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>6.5307549754669987</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>6.8280082778535212</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>7.3552489488162465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2500</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.3351459837677813</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.9420995795264986</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.3678632916941518</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.7068131911322904</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4.2432418543737001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4.466973568675094</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.6702919675355581</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>4.8572993852999833</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>5.0309195137179357</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>5.4193937615561305</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>5.7589652204924029</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>6.0626158738377471</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>6.3385613956601086</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>6.8280082778535212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3000</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2.1974565034223144</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2.76862170489016</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.4882447651869448</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.7575977647204368</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4.2035830681825281</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.3949130068446296</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>4.5708937246289567</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>4.7342765208092015</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>5.0998447843173986</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>5.4193937615561305</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>5.7051399665473594</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>5.9648146445905752</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>6.4254017949580717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3500</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2.0873952498565718</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2.6299532147448623</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.0105449021673638</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.3135334154957432</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.5693956684619317</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>3.7930488938943632</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.1747904997131418</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>4.3419570915420413</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>4.4971567380987665</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>4.8444152415353079</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>5.147959369096343</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>5.4193937615561305</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>5.6660624390072014</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>6.1035807372418924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1.996521732110798</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2.5154597568589678</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2.8794826102462014</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3.4140041389267619</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3.627920753455423</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3.819208678437489</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>4.1529325573352391</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.3013756790620485</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>4.6335164889153626</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>4.9238460023948365</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>5.1834636591014371</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>5.4193937615561305</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>5.8378649594194512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4500</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.9196550734974673</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.4186138356369491</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.76862170489016</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.047262483085972</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3.2825640015965569</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3.4882447651869448</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3.6721680502605292</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>3.8393101469949347</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>4.135771483238651</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>4.455124776766981</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>4.7342765208092015</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4.9838988233620753</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>5.2107455492873189</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>5.6131054861569192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5000</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>1.8534065955661463</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2.3351459837677813</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.6730748660601895</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2.9420995795264986</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.3678632916941518</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.545439271014494</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>3.7068131911322904</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>3.8552410769748411</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>4.3013756790620485</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>4.5708937246289567</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>4.8119014079045712</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>5.0309195137179357</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>5.4193937615561305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5500</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>1.7954492853393402</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.2621243486177405</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.5894859602894051</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2.8500980843032191</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.0701750914081369</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.2625478697758612</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.4345709250120229</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>3.5908985706786791</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3.7346850135444631</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>3.868178224528025</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>4.1668686770745618</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>4.4279587063518919</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>4.6614299121486482</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>4.8735991698278376</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>5.2499255583938433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6000</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>1.7441223825934722</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2.1974565034223144</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.5154597568589678</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2.76862170489016</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.9824073222952876</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.3363860922343278</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3.4882447651869448</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3.627920753455423</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>3.7575977647204368</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>4.0477494877499884</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>4.3013756790620485</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>4.5281725922615479</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>4.7342765208092015</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>5.0998447843173986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6500</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1.6982029334548778</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>2.1396016228530224</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.4492324510700758</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.6957291230217537</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.903886168783647</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>3.0858395211888041</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.2485453460813787</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3.3964058669097543</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>3.5324044501387779</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>3.6586673105490921</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>3.9411798865663119</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>4.1881285791498417</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>4.4089543578553441</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>4.6096319591230657</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>4.9655755005071844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7000</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1.6567667077478714</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>2.0873952498565718</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.3894710723489885</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.6299532147448623</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.833031219503602</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>3.0105449021673638</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>3.3135334154957432</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>3.4462136273573094</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>3.5693956684619317</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>3.8450149252919634</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>4.0859380589965433</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>4.3013756790620485</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>4.4971567380987665</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>4.8444152415353079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7500</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>1.619099795099995</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>2.0399379137269591</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.3351459837677813</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.5701607179832275</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.76862170489016</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.9420995795264986</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>3.0972264860671648</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>3.2381995901999892</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>3.3678632916941518</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>3.4882447651869448</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>3.7575977647204368</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>4.2035830681825281</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>4.3949130068446296</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>4.7342765208092015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>1.5846403489150267</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1.996521732110798</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2.2854468623144779</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.5154597568589678</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2.7096968807780653</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.8794826102462014</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.0313079369188731</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>3.2961847551334729</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>3.4140041389267619</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>3.6776244744081232</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>3.9080591619654883</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>4.1141178326482759</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>4.3013756790620485</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>4.6335164889153626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8500</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>1.5529390008191983</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1.956580536334819</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2.2397256066451039</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.4651370035428384</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.6554883380569709</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.8218774378007319</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>2.9706654396104404</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3.105878001638394</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>3.2302432937903998</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>3.3457056548683313</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>3.6040521627420854</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>3.829876914519001</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>4.0318133011441146</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>4.215324981320923</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>4.5408211847578972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>1.5236312415429858</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1.9196550734974673</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.1974565034223144</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.4186138356369491</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.605372774643659</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.76862170489016</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.9146017129937873</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>3.047262483085972</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>3.2825640015965569</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>3.5360348786447489</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>3.7575977647204368</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>3.9557231175540144</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>4.135771483238651</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>4.455124776766981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9500</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>1.4964177023852845</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1.885368162670541</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.1582077882655755</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.3754150349502368</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2.5588382772600435</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.719171422482856</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>2.8625440853454229</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>2.9928354047705694</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>3.1126742552601296</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>3.2239342087966629</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>3.4728778489060139</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>3.6904834058644487</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>3.8850700467705841</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>4.061902573139089</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="C22:P23" si="2">$B$2*POWER(P$4/$A22/1000,1/3)</f>
+        <v>4.3755519055503127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10000</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>1.4710497897632493</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>1.8534065955661463</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>2.1216209271868496</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>2.3351459837677813</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2.5154597568589678</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2.6730748660601895</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>2.8140170142488876</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2.9420995795264986</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>3.0599068705904382</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>3.1692806978300538</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>3.4140041389267619</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>3.627920753455423</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>3.819208678437489</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>3.9930434642215968</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>4.3013756790620485</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:P23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="3"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/计算器.xlsx
+++ b/doc/计算器.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Phibochilai-X\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Phibochilai-X\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7410" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="蜗轮蜗杆" sheetId="1" r:id="rId1"/>
     <sheet name="轴" sheetId="2" r:id="rId2"/>
     <sheet name="弯曲强度" sheetId="3" r:id="rId3"/>
+    <sheet name="电机" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">电机!$A$1:$N$26</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,13 +241,81 @@
   </si>
   <si>
     <t>a-&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%拉力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4012 kv480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4010 kv580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%拉力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3510 kv630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3510 kv700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3508 kv700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,12 +679,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -648,7 +720,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -670,7 +742,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -692,7 +764,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -708,7 +780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -724,7 +796,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -740,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -752,7 +824,7 @@
         <v>3.5763343749973515</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -764,7 +836,7 @@
         <v>3.5763343749973515</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>22</v>
       </c>
@@ -780,7 +852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>24</v>
       </c>
@@ -792,7 +864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -804,7 +876,7 @@
         <v>3.9269908169872414</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>28</v>
       </c>
@@ -813,7 +885,7 @@
         <v>3.9269908169872414</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>39</v>
       </c>
@@ -825,7 +897,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>29</v>
       </c>
@@ -837,7 +909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>30</v>
       </c>
@@ -852,7 +924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>33</v>
       </c>
@@ -864,7 +936,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>35</v>
       </c>
@@ -876,7 +948,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>37</v>
       </c>
@@ -903,9 +975,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -913,7 +985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -922,7 +994,7 @@
         <v>116.757299188389</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -930,7 +1002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>20</v>
       </c>
@@ -977,7 +1049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1042,7 +1114,7 @@
         <v>9.2670329778307252</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -1107,7 +1179,7 @@
         <v>7.3552489488162465</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3000</v>
       </c>
@@ -1172,7 +1244,7 @@
         <v>6.4254017949580717</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4000</v>
       </c>
@@ -1237,7 +1309,7 @@
         <v>5.8378649594194512</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5000</v>
       </c>
@@ -1302,7 +1374,7 @@
         <v>5.4193937615561305</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6000</v>
       </c>
@@ -1367,7 +1439,7 @@
         <v>5.0998447843173986</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7000</v>
       </c>
@@ -1432,7 +1504,7 @@
         <v>4.8444152415353079</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8000</v>
       </c>
@@ -1497,7 +1569,7 @@
         <v>4.6335164889153626</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9000</v>
       </c>
@@ -1562,7 +1634,7 @@
         <v>4.455124776766981</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -1627,7 +1699,7 @@
         <v>4.3013756790620485</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11000</v>
       </c>
@@ -1692,7 +1764,7 @@
         <v>4.1668686770745618</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12000</v>
       </c>
@@ -1757,7 +1829,7 @@
         <v>4.0477494877499884</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13000</v>
       </c>
@@ -1822,7 +1894,7 @@
         <v>3.9411798865663119</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14000</v>
       </c>
@@ -1887,7 +1959,7 @@
         <v>3.8450149252919634</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15000</v>
       </c>
@@ -1952,7 +2024,7 @@
         <v>3.7575977647204368</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16000</v>
       </c>
@@ -2017,7 +2089,7 @@
         <v>3.6776244744081232</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17000</v>
       </c>
@@ -2082,7 +2154,7 @@
         <v>3.6040521627420854</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18000</v>
       </c>
@@ -2147,7 +2219,7 @@
         <v>3.5360348786447489</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19000</v>
       </c>
@@ -2235,16 +2307,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="11.33203125" customWidth="1"/>
+    <col min="2" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2258,7 +2330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2280,7 +2352,7 @@
         <v>103.09173468914302</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2302,12 +2374,12 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2330,554 +2402,554 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <f>$D$1/((POWER(B$5+$A6*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" ref="B6:G15" si="0">$D$1/((POWER(B$5+$A6*2,3)-POWER(B$5,3))/6)*1000</f>
         <v>98.901098901098905</v>
       </c>
       <c r="C6">
-        <f>$D$1/((POWER(C$5+$A6*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>83.140877598152414</v>
       </c>
       <c r="D6">
-        <f>$D$1/((POWER(D$5+$A6*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>70.866141732283467</v>
       </c>
       <c r="E6">
-        <f>$D$1/((POWER(E$5+$A6*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>61.120543293718157</v>
       </c>
       <c r="F6">
-        <f>$D$1/((POWER(F$5+$A6*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>53.254437869822482</v>
       </c>
       <c r="G6">
-        <f>$D$1/((POWER(G$5+$A6*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>46.814044213263983</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.5</v>
       </c>
       <c r="B7">
-        <f>$D$1/((POWER(B$5+$A7*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>60.150375939849624</v>
       </c>
       <c r="C7">
-        <f>$D$1/((POWER(C$5+$A7*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>50.955414012738856</v>
       </c>
       <c r="D7">
-        <f>$D$1/((POWER(D$5+$A7*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>43.715846994535518</v>
       </c>
       <c r="E7">
-        <f>$D$1/((POWER(E$5+$A7*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>37.914691943127963</v>
       </c>
       <c r="F7">
-        <f>$D$1/((POWER(F$5+$A7*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>33.19502074688797</v>
       </c>
       <c r="G7">
-        <f>$D$1/((POWER(G$5+$A7*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>29.304029304029303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
-        <f>$D$1/((POWER(B$5+$A8*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>41.284403669724767</v>
       </c>
       <c r="C8">
-        <f>$D$1/((POWER(C$5+$A8*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>35.225048923679061</v>
       </c>
       <c r="D8">
-        <f>$D$1/((POWER(D$5+$A8*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>30.405405405405403</v>
       </c>
       <c r="E8">
-        <f>$D$1/((POWER(E$5+$A8*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>26.509572901325477</v>
       </c>
       <c r="F8">
-        <f>$D$1/((POWER(F$5+$A8*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>23.316062176165808</v>
       </c>
       <c r="G8">
-        <f>$D$1/((POWER(G$5+$A8*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>20.66590126291619</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.5</v>
       </c>
       <c r="B9">
-        <f>$D$1/((POWER(B$5+$A9*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>30.315789473684212</v>
       </c>
       <c r="C9">
-        <f>$D$1/((POWER(C$5+$A9*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>26.039783001808317</v>
       </c>
       <c r="D9">
-        <f>$D$1/((POWER(D$5+$A9*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>22.605965463108319</v>
       </c>
       <c r="E9">
-        <f>$D$1/((POWER(E$5+$A9*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>19.807427785419531</v>
       </c>
       <c r="F9">
-        <f>$D$1/((POWER(F$5+$A9*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>17.496962332928312</v>
       </c>
       <c r="G9">
-        <f>$D$1/((POWER(G$5+$A9*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>15.567567567567567</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <f>$D$1/((POWER(B$5+$A10*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>23.255813953488371</v>
       </c>
       <c r="C10">
-        <f>$D$1/((POWER(C$5+$A10*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>20.100502512562816</v>
       </c>
       <c r="D10">
-        <f>$D$1/((POWER(D$5+$A10*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>17.543859649122805</v>
       </c>
       <c r="E10">
-        <f>$D$1/((POWER(E$5+$A10*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>15.444015444015445</v>
       </c>
       <c r="F10">
-        <f>$D$1/((POWER(F$5+$A10*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>13.698630136986301</v>
       </c>
       <c r="G10">
-        <f>$D$1/((POWER(G$5+$A10*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>12.232415902140673</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
       <c r="B11">
-        <f>$D$1/((POWER(B$5+$A11*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>18.400204446716078</v>
       </c>
       <c r="C11">
-        <f>$D$1/((POWER(C$5+$A11*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>15.996445234392358</v>
       </c>
       <c r="D11">
-        <f>$D$1/((POWER(D$5+$A11*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>14.032352367959463</v>
       </c>
       <c r="E11">
-        <f>$D$1/((POWER(E$5+$A11*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>12.407375495433397</v>
       </c>
       <c r="F11">
-        <f>$D$1/((POWER(F$5+$A11*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>11.04802823384993</v>
       </c>
       <c r="G11">
-        <f>$D$1/((POWER(G$5+$A11*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>9.8996287639213527</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
-        <f>$D$1/((POWER(B$5+$A12*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>14.900662251655628</v>
       </c>
       <c r="C12">
-        <f>$D$1/((POWER(C$5+$A12*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>13.024602026049203</v>
       </c>
       <c r="D12">
-        <f>$D$1/((POWER(D$5+$A12*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>11.479591836734695</v>
       </c>
       <c r="E12">
-        <f>$D$1/((POWER(E$5+$A12*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>10.192525481313703</v>
       </c>
       <c r="F12">
-        <f>$D$1/((POWER(F$5+$A12*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>9.1093117408906892</v>
       </c>
       <c r="G12">
-        <f>$D$1/((POWER(G$5+$A12*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>8.1892629663330307</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.5</v>
       </c>
       <c r="B13">
-        <f>$D$1/((POWER(B$5+$A13*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>12.288786482334869</v>
       </c>
       <c r="C13">
-        <f>$D$1/((POWER(C$5+$A13*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>10.796221322537111</v>
       </c>
       <c r="D13">
-        <f>$D$1/((POWER(D$5+$A13*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>9.5579450418160086</v>
       </c>
       <c r="E13">
-        <f>$D$1/((POWER(E$5+$A13*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>8.5197018104366347</v>
       </c>
       <c r="F13">
-        <f>$D$1/((POWER(F$5+$A13*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>7.6408787010506209</v>
       </c>
       <c r="G13">
-        <f>$D$1/((POWER(G$5+$A13*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>6.8906115417743328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
-        <f>$D$1/((POWER(B$5+$A14*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714285</v>
       </c>
       <c r="C14">
-        <f>$D$1/((POWER(C$5+$A14*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>9.0794451450189158</v>
       </c>
       <c r="D14">
-        <f>$D$1/((POWER(D$5+$A14*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>8.071748878923767</v>
       </c>
       <c r="E14">
-        <f>$D$1/((POWER(E$5+$A14*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>7.2216649949849545</v>
       </c>
       <c r="F14">
-        <f>$D$1/((POWER(F$5+$A14*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>6.4981949458483754</v>
       </c>
       <c r="G14">
-        <f>$D$1/((POWER(G$5+$A14*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>5.8775510204081627</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5.5</v>
       </c>
       <c r="B15">
-        <f>$D$1/((POWER(B$5+$A15*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>8.715651858128556</v>
       </c>
       <c r="C15">
-        <f>$D$1/((POWER(C$5+$A15*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>7.7278093807019435</v>
       </c>
       <c r="D15">
-        <f>$D$1/((POWER(D$5+$A15*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>6.8972123766644318</v>
       </c>
       <c r="E15">
-        <f>$D$1/((POWER(E$5+$A15*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>6.1924830136750666</v>
       </c>
       <c r="F15">
-        <f>$D$1/((POWER(F$5+$A15*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>5.5896281344616092</v>
       </c>
       <c r="G15">
-        <f>$D$1/((POWER(G$5+$A15*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="0"/>
         <v>5.0700654883458913</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16">
-        <f>$D$1/((POWER(B$5+$A16*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" ref="B16:G24" si="1">$D$1/((POWER(B$5+$A16*2,3)-POWER(B$5,3))/6)*1000</f>
         <v>7.4626865671641793</v>
       </c>
       <c r="C16">
-        <f>$D$1/((POWER(C$5+$A16*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>6.6445182724252492</v>
       </c>
       <c r="D16">
-        <f>$D$1/((POWER(D$5+$A16*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>5.9523809523809517</v>
       </c>
       <c r="E16">
-        <f>$D$1/((POWER(E$5+$A16*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>5.3619302949061662</v>
       </c>
       <c r="F16">
-        <f>$D$1/((POWER(F$5+$A16*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.8543689320388346</v>
       </c>
       <c r="G16">
-        <f>$D$1/((POWER(G$5+$A16*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.4150110375275942</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.5</v>
       </c>
       <c r="B17">
-        <f>$D$1/((POWER(B$5+$A17*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>6.4475687292916621</v>
       </c>
       <c r="C17">
-        <f>$D$1/((POWER(C$5+$A17*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>5.7632274073481158</v>
       </c>
       <c r="D17">
-        <f>$D$1/((POWER(D$5+$A17*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>5.1809743110023749</v>
       </c>
       <c r="E17">
-        <f>$D$1/((POWER(E$5+$A17*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.6817088237206583</v>
       </c>
       <c r="F17">
-        <f>$D$1/((POWER(F$5+$A17*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.2505460771001831</v>
       </c>
       <c r="G17">
-        <f>$D$1/((POWER(G$5+$A17*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.8757603488184316</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18">
-        <f>$D$1/((POWER(B$5+$A18*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>5.6144728633811596</v>
       </c>
       <c r="C18">
-        <f>$D$1/((POWER(C$5+$A18*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>5.0370784944732048</v>
       </c>
       <c r="D18">
-        <f>$D$1/((POWER(D$5+$A18*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.5431600201918219</v>
       </c>
       <c r="E18">
-        <f>$D$1/((POWER(E$5+$A18*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.1175797781082011</v>
       </c>
       <c r="F18">
-        <f>$D$1/((POWER(F$5+$A18*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.7484381507705122</v>
       </c>
       <c r="G18">
-        <f>$D$1/((POWER(G$5+$A18*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.4262872370800417</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7.5</v>
       </c>
       <c r="B19">
-        <f>$D$1/((POWER(B$5+$A19*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.9230769230769234</v>
       </c>
       <c r="C19">
-        <f>$D$1/((POWER(C$5+$A19*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.43213296398892</v>
       </c>
       <c r="D19">
-        <f>$D$1/((POWER(D$5+$A19*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.0100250626566414</v>
       </c>
       <c r="E19">
-        <f>$D$1/((POWER(E$5+$A19*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.6446469248291575</v>
       </c>
       <c r="F19">
-        <f>$D$1/((POWER(F$5+$A19*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3264033264033266</v>
       </c>
       <c r="G19">
-        <f>$D$1/((POWER(G$5+$A19*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0476190476190479</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20">
-        <f>$D$1/((POWER(B$5+$A20*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>4.3436293436293436</v>
       </c>
       <c r="C20">
-        <f>$D$1/((POWER(C$5+$A20*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.9232781168265038</v>
       </c>
       <c r="D20">
-        <f>$D$1/((POWER(D$5+$A20*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.5601265822784813</v>
       </c>
       <c r="E20">
-        <f>$D$1/((POWER(E$5+$A20*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.2444124008651767</v>
       </c>
       <c r="F20">
-        <f>$D$1/((POWER(F$5+$A20*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9683377308707124</v>
       </c>
       <c r="G20">
-        <f>$D$1/((POWER(G$5+$A20*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7256208358570562</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8.5</v>
       </c>
       <c r="B21">
-        <f>$D$1/((POWER(B$5+$A21*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.8537708076861317</v>
       </c>
       <c r="C21">
-        <f>$D$1/((POWER(C$5+$A21*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.4915862470297268</v>
       </c>
       <c r="D21">
-        <f>$D$1/((POWER(D$5+$A21*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.1772649044614094</v>
       </c>
       <c r="E21">
-        <f>$D$1/((POWER(E$5+$A21*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.9028746522598077</v>
       </c>
       <c r="F21">
-        <f>$D$1/((POWER(F$5+$A21*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.6620327577919918</v>
       </c>
       <c r="G21">
-        <f>$D$1/((POWER(G$5+$A21*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.4495628210798492</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22">
-        <f>$D$1/((POWER(B$5+$A22*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.4364261168384878</v>
       </c>
       <c r="C22">
-        <f>$D$1/((POWER(C$5+$A22*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.1225604996096799</v>
       </c>
       <c r="D22">
-        <f>$D$1/((POWER(D$5+$A22*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8490028490028489</v>
       </c>
       <c r="E22">
-        <f>$D$1/((POWER(E$5+$A22*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.6092628832354858</v>
       </c>
       <c r="F22">
-        <f>$D$1/((POWER(F$5+$A22*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.398081534772182</v>
       </c>
       <c r="G22">
-        <f>$D$1/((POWER(G$5+$A22*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.2111663902708676</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9.5</v>
       </c>
       <c r="B23">
-        <f>$D$1/((POWER(B$5+$A23*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>3.0783701740134251</v>
       </c>
       <c r="C23">
-        <f>$D$1/((POWER(C$5+$A23*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.8049398106665628</v>
       </c>
       <c r="D23">
-        <f>$D$1/((POWER(D$5+$A23*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.5656558457755763</v>
       </c>
       <c r="E23">
-        <f>$D$1/((POWER(E$5+$A23*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.3551732033626638</v>
       </c>
       <c r="F23">
-        <f>$D$1/((POWER(F$5+$A23*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.1691320459132948</v>
       </c>
       <c r="G23">
-        <f>$D$1/((POWER(G$5+$A23*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.0039522391383007</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24">
-        <f>$D$1/((POWER(B$5+$A24*2,3)-POWER(B$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.7692307692307696</v>
       </c>
       <c r="C24">
-        <f>$D$1/((POWER(C$5+$A24*2,3)-POWER(C$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.5298664792691499</v>
       </c>
       <c r="D24">
-        <f>$D$1/((POWER(D$5+$A24*2,3)-POWER(D$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.3195876288659796</v>
       </c>
       <c r="E24">
-        <f>$D$1/((POWER(E$5+$A24*2,3)-POWER(E$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>2.1339656194427983</v>
       </c>
       <c r="F24">
-        <f>$D$1/((POWER(F$5+$A24*2,3)-POWER(F$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>1.9693654266958425</v>
       </c>
       <c r="G24">
-        <f>$D$1/((POWER(G$5+$A24*2,3)-POWER(G$5,3))/6)*1000</f>
+        <f t="shared" si="1"/>
         <v>1.8227848101265824</v>
       </c>
     </row>
@@ -2898,4 +2970,480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>3.6</v>
+      </c>
+      <c r="F2">
+        <v>5.7</v>
+      </c>
+      <c r="G2">
+        <f>F2*4</f>
+        <v>22.8</v>
+      </c>
+      <c r="H2">
+        <f>D2*1000/F2/B2/3.7</f>
+        <v>7.112375533428164</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>I2*4</f>
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>15.4</v>
+      </c>
+      <c r="L2">
+        <f>K2*4</f>
+        <v>61.6</v>
+      </c>
+      <c r="M2">
+        <f>I2*1000/K2/B2/3.7</f>
+        <v>5.8500058500058492</v>
+      </c>
+      <c r="N2">
+        <f>(L2+60)/5.3</f>
+        <v>22.943396226415093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0.73</v>
+      </c>
+      <c r="E3">
+        <f>D3*4</f>
+        <v>2.92</v>
+      </c>
+      <c r="F3">
+        <v>4.7</v>
+      </c>
+      <c r="G3">
+        <f>F3*4</f>
+        <v>18.8</v>
+      </c>
+      <c r="H3">
+        <f>D3*1000/F3/B3/3.7</f>
+        <v>10.494537090281769</v>
+      </c>
+      <c r="I3">
+        <v>1.8</v>
+      </c>
+      <c r="J3">
+        <f>I3*4</f>
+        <v>7.2</v>
+      </c>
+      <c r="K3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L3">
+        <f>K3*4</f>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M3">
+        <f>I3*1000/K3/B3/3.7</f>
+        <v>6.2691557536918365</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N9" si="0">(L3+60)/5.3</f>
+        <v>25.962264150943398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>0.73</v>
+      </c>
+      <c r="E4">
+        <f>D4*4</f>
+        <v>2.92</v>
+      </c>
+      <c r="F4">
+        <v>4.7</v>
+      </c>
+      <c r="G4">
+        <f>F4*4</f>
+        <v>18.8</v>
+      </c>
+      <c r="H4">
+        <f>D4*1000/F4/B4/3.7</f>
+        <v>10.494537090281769</v>
+      </c>
+      <c r="I4">
+        <v>1.8</v>
+      </c>
+      <c r="J4">
+        <f>I4*4</f>
+        <v>7.2</v>
+      </c>
+      <c r="K4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L4">
+        <f>K4*4</f>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="M4">
+        <f>I4*1000/K4/B4/3.7</f>
+        <v>6.2691557536918365</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>25.962264150943398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0.68</v>
+      </c>
+      <c r="E5">
+        <f>D5*4</f>
+        <v>2.72</v>
+      </c>
+      <c r="F5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G5">
+        <f>F5*4</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H5">
+        <f>D5*1000/F5/B5/3.7</f>
+        <v>9.9882491186839015</v>
+      </c>
+      <c r="I5">
+        <v>1.42</v>
+      </c>
+      <c r="J5">
+        <f>I5*4</f>
+        <v>5.68</v>
+      </c>
+      <c r="K5">
+        <v>13.2</v>
+      </c>
+      <c r="L5">
+        <f>K5*4</f>
+        <v>52.8</v>
+      </c>
+      <c r="M5">
+        <f>I5*1000/K5/B5/3.7</f>
+        <v>7.2686322686322686</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>21.283018867924529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E6">
+        <f>D6*4</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F6">
+        <v>3.8</v>
+      </c>
+      <c r="G6">
+        <f>F6*4</f>
+        <v>15.2</v>
+      </c>
+      <c r="H6">
+        <f>D6*1000/F6/B6/3.7</f>
+        <v>10.31294452347084</v>
+      </c>
+      <c r="I6">
+        <v>1.6</v>
+      </c>
+      <c r="J6">
+        <f>I6*4</f>
+        <v>6.4</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <f>K6*4</f>
+        <v>68</v>
+      </c>
+      <c r="M6">
+        <f>I6*1000/K6/B6/3.7</f>
+        <v>6.3593004769475359</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>24.150943396226417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E7">
+        <f>D7*4</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F7">
+        <v>3.8</v>
+      </c>
+      <c r="G7">
+        <f>F7*4</f>
+        <v>15.2</v>
+      </c>
+      <c r="H7">
+        <f>D7*1000/F7/B7/3.7</f>
+        <v>10.31294452347084</v>
+      </c>
+      <c r="I7">
+        <v>1.6</v>
+      </c>
+      <c r="J7">
+        <f>I7*4</f>
+        <v>6.4</v>
+      </c>
+      <c r="K7">
+        <v>16.8</v>
+      </c>
+      <c r="L7">
+        <f>K7*4</f>
+        <v>67.2</v>
+      </c>
+      <c r="M7">
+        <f>I7*1000/K7/B7/3.7</f>
+        <v>6.4350064350064349</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0.54</v>
+      </c>
+      <c r="E8">
+        <f>D8*4</f>
+        <v>2.16</v>
+      </c>
+      <c r="F8">
+        <v>3.4</v>
+      </c>
+      <c r="G8">
+        <f>F8*4</f>
+        <v>13.6</v>
+      </c>
+      <c r="H8">
+        <f>D8*1000/F8/B8/3.7</f>
+        <v>10.731319554848966</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <f>I8*4</f>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <f>K8*4</f>
+        <v>56</v>
+      </c>
+      <c r="M8">
+        <f>I8*1000/K8/B8/3.7</f>
+        <v>7.2393822393822385</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>21.886792452830189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0.46</v>
+      </c>
+      <c r="E9">
+        <f>D9*4</f>
+        <v>1.84</v>
+      </c>
+      <c r="F9">
+        <v>3.8</v>
+      </c>
+      <c r="G9">
+        <f>F9*4</f>
+        <v>15.2</v>
+      </c>
+      <c r="H9">
+        <f>D9*1000/F9/B9/3.7</f>
+        <v>8.1792318634423893</v>
+      </c>
+      <c r="I9">
+        <v>1.36</v>
+      </c>
+      <c r="J9">
+        <f>I9*4</f>
+        <v>5.44</v>
+      </c>
+      <c r="K9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L9">
+        <f>K9*4</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="M9">
+        <f>I9*1000/K9/B9/3.7</f>
+        <v>5.7075709249622291</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>23.471698113207548</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N26">
+    <sortState ref="A2:N26">
+      <sortCondition descending="1" ref="E1:E26"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1.6"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="4"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF92D050"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>